--- a/Team-Data/2007-08/11-10-2007-08.xlsx
+++ b/Team-Data/2007-08/11-10-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,28 +811,28 @@
         <v>-2.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG2" t="n">
         <v>19</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>20</v>
       </c>
       <c r="AH2" t="n">
         <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="n">
         <v>23</v>
@@ -780,13 +847,13 @@
         <v>11</v>
       </c>
       <c r="AP2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS2" t="n">
         <v>22</v>
@@ -798,13 +865,13 @@
         <v>27</v>
       </c>
       <c r="AV2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY2" t="n">
         <v>30</v>
@@ -813,13 +880,13 @@
         <v>12</v>
       </c>
       <c r="BA2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB2" t="n">
         <v>24</v>
       </c>
       <c r="BC2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -848,10 +915,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -860,76 +927,76 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>49</v>
+        <v>49.3</v>
       </c>
       <c r="I3" t="n">
-        <v>39.8</v>
+        <v>40.8</v>
       </c>
       <c r="J3" t="n">
-        <v>76.2</v>
+        <v>75.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.522</v>
+        <v>0.54</v>
       </c>
       <c r="L3" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
         <v>19</v>
       </c>
       <c r="N3" t="n">
-        <v>0.442</v>
+        <v>0.421</v>
       </c>
       <c r="O3" t="n">
-        <v>19.6</v>
+        <v>17</v>
       </c>
       <c r="P3" t="n">
-        <v>26</v>
+        <v>23.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.754</v>
+        <v>0.716</v>
       </c>
       <c r="R3" t="n">
-        <v>9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>33.8</v>
+        <v>33</v>
       </c>
       <c r="T3" t="n">
-        <v>42.8</v>
+        <v>41.3</v>
       </c>
       <c r="U3" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="V3" t="n">
-        <v>17.8</v>
+        <v>19</v>
       </c>
       <c r="W3" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="X3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE3" t="n">
         <v>4</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>107.6</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
       </c>
       <c r="AF3" t="n">
         <v>1</v>
@@ -941,64 +1008,64 @@
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AK3" t="n">
         <v>1</v>
       </c>
       <c r="AL3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN3" t="n">
         <v>2</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AP3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT3" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AU3" t="n">
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AW3" t="n">
         <v>1</v>
       </c>
       <c r="AX3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AY3" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="AZ3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG4" t="n">
         <v>12</v>
@@ -1123,7 +1190,7 @@
         <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
         <v>30</v>
@@ -1132,7 +1199,7 @@
         <v>27</v>
       </c>
       <c r="AL4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM4" t="n">
         <v>23</v>
@@ -1144,7 +1211,7 @@
         <v>13</v>
       </c>
       <c r="AP4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ4" t="n">
         <v>29</v>
@@ -1153,10 +1220,10 @@
         <v>1</v>
       </c>
       <c r="AS4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU4" t="n">
         <v>28</v>
@@ -1168,7 +1235,7 @@
         <v>14</v>
       </c>
       <c r="AX4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
         <v>14</v>
@@ -1177,10 +1244,10 @@
         <v>22</v>
       </c>
       <c r="BA4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC4" t="n">
         <v>28</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -1212,103 +1279,103 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>49</v>
+      </c>
+      <c r="I5" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="O5" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R5" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="U5" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>16</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-5.6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>5</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="H5" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="I5" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>84.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="M5" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.262</v>
-      </c>
-      <c r="O5" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.725</v>
-      </c>
-      <c r="R5" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="S5" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="T5" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="V5" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="X5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>-9.699999999999999</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>7</v>
       </c>
       <c r="AK5" t="n">
         <v>29</v>
@@ -1317,55 +1384,55 @@
         <v>26</v>
       </c>
       <c r="AM5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV5" t="n">
         <v>16</v>
       </c>
-      <c r="AN5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AS5" t="n">
+      <c r="AW5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB5" t="n">
         <v>27</v>
       </c>
-      <c r="AT5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>18</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>29</v>
-      </c>
       <c r="BC5" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>-3.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG6" t="n">
         <v>15</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>16</v>
       </c>
       <c r="AH6" t="n">
         <v>7</v>
@@ -1490,19 +1557,19 @@
         <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK6" t="n">
         <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM6" t="n">
         <v>10</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>23</v>
@@ -1517,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
@@ -1526,22 +1593,22 @@
         <v>25</v>
       </c>
       <c r="AV6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
         <v>21</v>
       </c>
       <c r="BA6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB6" t="n">
         <v>18</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -1576,127 +1643,127 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.667</v>
+        <v>0.8</v>
       </c>
       <c r="H7" t="n">
         <v>48</v>
       </c>
       <c r="I7" t="n">
-        <v>36.7</v>
+        <v>38.2</v>
       </c>
       <c r="J7" t="n">
-        <v>76.8</v>
+        <v>75.8</v>
       </c>
       <c r="K7" t="n">
-        <v>0.477</v>
+        <v>0.504</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="M7" t="n">
-        <v>19</v>
+        <v>19.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.368</v>
+        <v>0.388</v>
       </c>
       <c r="O7" t="n">
-        <v>22.7</v>
+        <v>23.2</v>
       </c>
       <c r="P7" t="n">
-        <v>25.5</v>
+        <v>26.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.889</v>
+        <v>0.879</v>
       </c>
       <c r="R7" t="n">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T7" t="n">
-        <v>40.3</v>
+        <v>39.4</v>
       </c>
       <c r="U7" t="n">
-        <v>21.2</v>
+        <v>22.8</v>
       </c>
       <c r="V7" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>107.2</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE7" t="n">
         <v>4</v>
       </c>
-      <c r="X7" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>103</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>7</v>
-      </c>
       <c r="AF7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
         <v>7</v>
       </c>
       <c r="AI7" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AJ7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL7" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AM7" t="n">
         <v>13</v>
       </c>
       <c r="AN7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS7" t="n">
         <v>14</v>
@@ -1705,31 +1772,31 @@
         <v>27</v>
       </c>
       <c r="AU7" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AV7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW7" t="n">
         <v>30</v>
       </c>
       <c r="AX7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY7" t="n">
         <v>2</v>
       </c>
       <c r="AZ7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BC7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -1758,94 +1825,94 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.571</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>38.1</v>
+        <v>38.5</v>
       </c>
       <c r="J8" t="n">
-        <v>83.40000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K8" t="n">
-        <v>0.457</v>
+        <v>0.46</v>
       </c>
       <c r="L8" t="n">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="M8" t="n">
-        <v>21.4</v>
+        <v>19.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.367</v>
+        <v>0.361</v>
       </c>
       <c r="O8" t="n">
-        <v>22</v>
+        <v>20.8</v>
       </c>
       <c r="P8" t="n">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.748</v>
+        <v>0.727</v>
       </c>
       <c r="R8" t="n">
-        <v>10.6</v>
+        <v>11.2</v>
       </c>
       <c r="S8" t="n">
-        <v>33.9</v>
+        <v>32.7</v>
       </c>
       <c r="T8" t="n">
-        <v>44.4</v>
+        <v>43.8</v>
       </c>
       <c r="U8" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="V8" t="n">
-        <v>18.1</v>
+        <v>17.5</v>
       </c>
       <c r="W8" t="n">
-        <v>10.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X8" t="n">
         <v>5.7</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.9</v>
+        <v>22.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.1</v>
+        <v>22.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.1</v>
+        <v>105</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG8" t="n">
         <v>15</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>14</v>
       </c>
       <c r="AH8" t="n">
         <v>7</v>
@@ -1854,64 +1921,64 @@
         <v>8</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
         <v>10</v>
       </c>
       <c r="AL8" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AM8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS8" t="n">
         <v>9</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AS8" t="n">
+      <c r="AT8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU8" t="n">
         <v>4</v>
       </c>
-      <c r="AT8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>5</v>
-      </c>
       <c r="AV8" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AW8" t="n">
         <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY8" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ8" t="n">
         <v>16</v>
       </c>
       <c r="BA8" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC8" t="n">
         <v>13</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>14</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -2018,22 +2085,22 @@
         <v>11.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF9" t="n">
         <v>2</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH9" t="n">
         <v>7</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
         <v>22</v>
@@ -2042,13 +2109,13 @@
         <v>6</v>
       </c>
       <c r="AL9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM9" t="n">
         <v>19</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
         <v>17</v>
@@ -2057,40 +2124,40 @@
         <v>16</v>
       </c>
       <c r="AQ9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT9" t="n">
         <v>19</v>
       </c>
       <c r="AU9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>6</v>
       </c>
       <c r="AW9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AZ9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>-11.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>26</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG10" t="n">
         <v>26</v>
@@ -2218,25 +2285,25 @@
         <v>4</v>
       </c>
       <c r="AJ10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL10" t="n">
         <v>5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>4</v>
       </c>
       <c r="AM10" t="n">
         <v>2</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
         <v>16</v>
       </c>
       <c r="AP10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ10" t="n">
         <v>28</v>
@@ -2251,10 +2318,10 @@
         <v>29</v>
       </c>
       <c r="AU10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW10" t="n">
         <v>23</v>
@@ -2266,10 +2333,10 @@
         <v>14</v>
       </c>
       <c r="AZ10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB10" t="n">
         <v>3</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>6.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2397,31 +2464,31 @@
         <v>7</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN11" t="n">
         <v>26</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR11" t="n">
         <v>4</v>
@@ -2433,10 +2500,10 @@
         <v>1</v>
       </c>
       <c r="AU11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV11" t="n">
         <v>9</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>7</v>
       </c>
       <c r="AW11" t="n">
         <v>15</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -2486,160 +2553,160 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H12" t="n">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="I12" t="n">
-        <v>37.7</v>
+        <v>36.8</v>
       </c>
       <c r="J12" t="n">
-        <v>87.2</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L12" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="M12" t="n">
-        <v>21.8</v>
+        <v>20.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.344</v>
+        <v>0.356</v>
       </c>
       <c r="O12" t="n">
-        <v>18.7</v>
+        <v>19.8</v>
       </c>
       <c r="P12" t="n">
-        <v>25.3</v>
+        <v>25.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.737</v>
+        <v>0.773</v>
       </c>
       <c r="R12" t="n">
-        <v>11.7</v>
+        <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>34.5</v>
+        <v>33.8</v>
       </c>
       <c r="T12" t="n">
-        <v>46.2</v>
+        <v>45</v>
       </c>
       <c r="U12" t="n">
-        <v>22.5</v>
+        <v>20.8</v>
       </c>
       <c r="V12" t="n">
-        <v>16.5</v>
+        <v>15.6</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X12" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="Z12" t="n">
         <v>28.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>22.5</v>
+        <v>23.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>101.5</v>
+        <v>100.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.7</v>
+        <v>-0.6</v>
       </c>
       <c r="AD12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>6</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AK12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO12" t="n">
         <v>14</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AP12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR12" t="n">
         <v>15</v>
       </c>
-      <c r="AG12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH12" t="n">
+      <c r="AS12" t="n">
         <v>3</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AT12" t="n">
         <v>10</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL12" t="n">
+      <c r="AU12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW12" t="n">
         <v>9</v>
       </c>
-      <c r="AM12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>10</v>
-      </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
         <v>12</v>
       </c>
       <c r="BC12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -2746,55 +2813,55 @@
         <v>3.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF13" t="n">
         <v>2</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH13" t="n">
         <v>7</v>
       </c>
       <c r="AI13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
         <v>14</v>
       </c>
       <c r="AK13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO13" t="n">
         <v>2</v>
       </c>
       <c r="AP13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT13" t="n">
         <v>6</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>7</v>
       </c>
       <c r="AU13" t="n">
         <v>14</v>
@@ -2803,13 +2870,13 @@
         <v>12</v>
       </c>
       <c r="AW13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX13" t="n">
         <v>21</v>
       </c>
       <c r="AY13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AZ13" t="n">
         <v>13</v>
@@ -2818,10 +2885,10 @@
         <v>17</v>
       </c>
       <c r="BB13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -2928,13 +2995,13 @@
         <v>5.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG14" t="n">
         <v>12</v>
@@ -2943,16 +3010,16 @@
         <v>7</v>
       </c>
       <c r="AI14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM14" t="n">
         <v>21</v>
@@ -2961,34 +3028,34 @@
         <v>22</v>
       </c>
       <c r="AO14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP14" t="n">
         <v>8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY14" t="n">
         <v>14</v>
@@ -2997,13 +3064,13 @@
         <v>10</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>2</v>
       </c>
       <c r="BC14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -3032,160 +3099,160 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>34.8</v>
+        <v>35.5</v>
       </c>
       <c r="J15" t="n">
-        <v>79.2</v>
+        <v>82</v>
       </c>
       <c r="K15" t="n">
-        <v>0.439</v>
+        <v>0.433</v>
       </c>
       <c r="L15" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>22.6</v>
+        <v>24</v>
       </c>
       <c r="N15" t="n">
-        <v>0.398</v>
+        <v>0.385</v>
       </c>
       <c r="O15" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="P15" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R15" t="n">
+        <v>12</v>
+      </c>
+      <c r="S15" t="n">
         <v>32</v>
       </c>
-      <c r="Q15" t="n">
-        <v>0.725</v>
-      </c>
-      <c r="R15" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="S15" t="n">
-        <v>31.6</v>
-      </c>
       <c r="T15" t="n">
-        <v>42.8</v>
+        <v>44</v>
       </c>
       <c r="U15" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="V15" t="n">
-        <v>19.2</v>
+        <v>17.8</v>
       </c>
       <c r="W15" t="n">
         <v>4.8</v>
       </c>
       <c r="X15" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.8</v>
+        <v>103.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>-8.4</v>
+        <v>-4.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AE15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG15" t="n">
         <v>23</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>24</v>
       </c>
       <c r="AH15" t="n">
         <v>7</v>
       </c>
       <c r="AI15" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AJ15" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM15" t="n">
         <v>4</v>
       </c>
       <c r="AN15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO15" t="n">
         <v>5</v>
       </c>
       <c r="AP15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AR15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AS15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AT15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AU15" t="n">
         <v>22</v>
       </c>
       <c r="AV15" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AW15" t="n">
         <v>28</v>
       </c>
       <c r="AX15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY15" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AZ15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
       </c>
       <c r="BB15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC15" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -3292,13 +3359,13 @@
         <v>-6</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
         <v>26</v>
       </c>
       <c r="AF16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG16" t="n">
         <v>26</v>
@@ -3310,10 +3377,10 @@
         <v>23</v>
       </c>
       <c r="AJ16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
         <v>23</v>
@@ -3322,7 +3389,7 @@
         <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
         <v>30</v>
@@ -3334,40 +3401,40 @@
         <v>30</v>
       </c>
       <c r="AR16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS16" t="n">
         <v>11</v>
       </c>
       <c r="AT16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV16" t="n">
         <v>13</v>
       </c>
       <c r="AW16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY16" t="n">
         <v>21</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>22</v>
       </c>
       <c r="AZ16" t="n">
         <v>2</v>
       </c>
       <c r="BA16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB16" t="n">
         <v>30</v>
       </c>
       <c r="BC16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -3474,31 +3541,31 @@
         <v>-1</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG17" t="n">
         <v>19</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>20</v>
       </c>
       <c r="AH17" t="n">
         <v>7</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="n">
         <v>20</v>
@@ -3522,34 +3589,34 @@
         <v>11</v>
       </c>
       <c r="AT17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU17" t="n">
         <v>21</v>
       </c>
       <c r="AV17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>26</v>
       </c>
       <c r="AX17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY17" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ17" t="n">
         <v>25</v>
       </c>
       <c r="BA17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB17" t="n">
         <v>25</v>
       </c>
       <c r="BC17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -3578,13 +3645,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -3593,76 +3660,76 @@
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>37.4</v>
+        <v>37.8</v>
       </c>
       <c r="J18" t="n">
-        <v>86.59999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.432</v>
+        <v>0.43</v>
       </c>
       <c r="L18" t="n">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="M18" t="n">
-        <v>17.4</v>
+        <v>18.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.368</v>
+        <v>0.397</v>
       </c>
       <c r="O18" t="n">
-        <v>13.4</v>
+        <v>12.3</v>
       </c>
       <c r="P18" t="n">
-        <v>18.4</v>
+        <v>17</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.728</v>
+        <v>0.721</v>
       </c>
       <c r="R18" t="n">
-        <v>14</v>
+        <v>13.3</v>
       </c>
       <c r="S18" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="T18" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="U18" t="n">
-        <v>19.4</v>
+        <v>20.5</v>
       </c>
       <c r="V18" t="n">
-        <v>14.6</v>
+        <v>13.8</v>
       </c>
       <c r="W18" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z18" t="n">
         <v>29.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.2</v>
+        <v>18</v>
       </c>
       <c r="AB18" t="n">
-        <v>94.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
         <v>26</v>
       </c>
       <c r="AF18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG18" t="n">
         <v>26</v>
@@ -3674,31 +3741,31 @@
         <v>11</v>
       </c>
       <c r="AJ18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM18" t="n">
         <v>16</v>
       </c>
-      <c r="AM18" t="n">
-        <v>17</v>
-      </c>
       <c r="AN18" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AO18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP18" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AQ18" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AR18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS18" t="n">
         <v>28</v>
@@ -3707,16 +3774,16 @@
         <v>22</v>
       </c>
       <c r="AU18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX18" t="n">
         <v>22</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>18</v>
       </c>
       <c r="AY18" t="n">
         <v>9</v>
@@ -3725,13 +3792,13 @@
         <v>30</v>
       </c>
       <c r="BA18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB18" t="n">
         <v>21</v>
       </c>
       <c r="BC18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -3760,103 +3827,103 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
       </c>
       <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>49</v>
+      </c>
+      <c r="I19" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>76</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>20</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="O19" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="R19" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="S19" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="T19" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="U19" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="V19" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="W19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF19" t="n">
         <v>2</v>
       </c>
-      <c r="G19" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="H19" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="I19" t="n">
-        <v>31</v>
-      </c>
-      <c r="J19" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="L19" t="n">
-        <v>6</v>
-      </c>
-      <c r="M19" t="n">
-        <v>19</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="O19" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="P19" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.8149999999999999</v>
-      </c>
-      <c r="R19" t="n">
-        <v>10</v>
-      </c>
-      <c r="S19" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="T19" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="U19" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="V19" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="W19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X19" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>6</v>
-      </c>
       <c r="AG19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AH19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI19" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
@@ -3865,43 +3932,43 @@
         <v>17</v>
       </c>
       <c r="AM19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AN19" t="n">
         <v>24</v>
       </c>
       <c r="AO19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AP19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY19" t="n">
         <v>11</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>10</v>
       </c>
       <c r="AZ19" t="n">
         <v>28</v>
@@ -3910,10 +3977,10 @@
         <v>8</v>
       </c>
       <c r="BB19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>6.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF20" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG20" t="n">
         <v>9</v>
@@ -4035,22 +4102,22 @@
         <v>7</v>
       </c>
       <c r="AI20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM20" t="n">
         <v>7</v>
       </c>
-      <c r="AM20" t="n">
-        <v>9</v>
-      </c>
       <c r="AN20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
         <v>22</v>
@@ -4059,13 +4126,13 @@
         <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT20" t="n">
         <v>11</v>
@@ -4080,7 +4147,7 @@
         <v>15</v>
       </c>
       <c r="AX20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY20" t="n">
         <v>8</v>
@@ -4089,7 +4156,7 @@
         <v>4</v>
       </c>
       <c r="BA20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB20" t="n">
         <v>13</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -4202,16 +4269,16 @@
         <v>-0.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF21" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
         <v>7</v>
@@ -4220,19 +4287,19 @@
         <v>7</v>
       </c>
       <c r="AJ21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL21" t="n">
         <v>15</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>14</v>
       </c>
       <c r="AM21" t="n">
         <v>22</v>
       </c>
       <c r="AN21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO21" t="n">
         <v>10</v>
@@ -4247,25 +4314,25 @@
         <v>10</v>
       </c>
       <c r="AS21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW21" t="n">
         <v>25</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>24</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AZ21" t="n">
         <v>11</v>
@@ -4277,7 +4344,7 @@
         <v>6</v>
       </c>
       <c r="BC21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -4306,82 +4373,82 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0.714</v>
+        <v>0.833</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>35.6</v>
+        <v>34.8</v>
       </c>
       <c r="J22" t="n">
-        <v>78</v>
+        <v>76.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.456</v>
+        <v>0.453</v>
       </c>
       <c r="L22" t="n">
-        <v>9.9</v>
+        <v>10.2</v>
       </c>
       <c r="M22" t="n">
-        <v>24.7</v>
+        <v>25.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.399</v>
+        <v>0.396</v>
       </c>
       <c r="O22" t="n">
-        <v>20.7</v>
+        <v>22.8</v>
       </c>
       <c r="P22" t="n">
-        <v>28.9</v>
+        <v>30.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.718</v>
+        <v>0.749</v>
       </c>
       <c r="R22" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="S22" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T22" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U22" t="n">
-        <v>21</v>
+        <v>20.3</v>
       </c>
       <c r="V22" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="W22" t="n">
         <v>5.3</v>
       </c>
       <c r="X22" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>19.7</v>
+        <v>20.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>23.9</v>
+        <v>25.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>101.7</v>
+        <v>102.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.4</v>
+        <v>5.7</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
@@ -4390,25 +4457,25 @@
         <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AH22" t="n">
         <v>7</v>
       </c>
       <c r="AI22" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK22" t="n">
         <v>12</v>
       </c>
       <c r="AL22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM22" t="n">
         <v>3</v>
@@ -4417,49 +4484,49 @@
         <v>7</v>
       </c>
       <c r="AO22" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AP22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AQ22" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AR22" t="n">
         <v>26</v>
       </c>
       <c r="AS22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU22" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AV22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW22" t="n">
         <v>27</v>
       </c>
       <c r="AX22" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AY22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA22" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BB22" t="n">
         <v>11</v>
       </c>
       <c r="BC22" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -4566,31 +4633,31 @@
         <v>5.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG23" t="n">
         <v>19</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>20</v>
       </c>
       <c r="AH23" t="n">
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM23" t="n">
         <v>24</v>
@@ -4602,7 +4669,7 @@
         <v>14</v>
       </c>
       <c r="AP23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AQ23" t="n">
         <v>26</v>
@@ -4614,7 +4681,7 @@
         <v>19</v>
       </c>
       <c r="AT23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU23" t="n">
         <v>25</v>
@@ -4623,10 +4690,10 @@
         <v>20</v>
       </c>
       <c r="AW23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY23" t="n">
         <v>6</v>
@@ -4641,7 +4708,7 @@
         <v>19</v>
       </c>
       <c r="BC23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -4670,124 +4737,124 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>0.714</v>
+        <v>0.667</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>40.4</v>
+        <v>39.7</v>
       </c>
       <c r="J24" t="n">
-        <v>88.40000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.457</v>
+        <v>0.453</v>
       </c>
       <c r="L24" t="n">
-        <v>10.3</v>
+        <v>10</v>
       </c>
       <c r="M24" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="N24" t="n">
-        <v>0.369</v>
+        <v>0.361</v>
       </c>
       <c r="O24" t="n">
-        <v>13.1</v>
+        <v>14.7</v>
       </c>
       <c r="P24" t="n">
-        <v>17.4</v>
+        <v>19.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.754</v>
+        <v>0.752</v>
       </c>
       <c r="R24" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S24" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T24" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U24" t="n">
-        <v>24.6</v>
+        <v>23.8</v>
       </c>
       <c r="V24" t="n">
-        <v>13.4</v>
+        <v>13.8</v>
       </c>
       <c r="W24" t="n">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="X24" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>19.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>104.3</v>
+        <v>104</v>
       </c>
       <c r="AC24" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AH24" t="n">
         <v>7</v>
       </c>
       <c r="AI24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>3</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>1</v>
-      </c>
       <c r="AK24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM24" t="n">
         <v>1</v>
       </c>
       <c r="AN24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ24" t="n">
         <v>11</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>10</v>
       </c>
       <c r="AR24" t="n">
         <v>23</v>
@@ -4799,28 +4866,28 @@
         <v>24</v>
       </c>
       <c r="AU24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW24" t="n">
         <v>4</v>
       </c>
-      <c r="AV24" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>7</v>
-      </c>
       <c r="AX24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY24" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ24" t="n">
         <v>1</v>
       </c>
       <c r="BA24" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC24" t="n">
         <v>11</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -4852,94 +4919,94 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>37</v>
+        <v>37.4</v>
       </c>
       <c r="J25" t="n">
-        <v>79.2</v>
+        <v>81</v>
       </c>
       <c r="K25" t="n">
-        <v>0.467</v>
+        <v>0.462</v>
       </c>
       <c r="L25" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="N25" t="n">
-        <v>0.421</v>
+        <v>0.391</v>
       </c>
       <c r="O25" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="P25" t="n">
-        <v>19.5</v>
+        <v>18.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.752</v>
+        <v>0.804</v>
       </c>
       <c r="R25" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S25" t="n">
-        <v>31.7</v>
+        <v>31</v>
       </c>
       <c r="T25" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U25" t="n">
-        <v>20.7</v>
+        <v>19.2</v>
       </c>
       <c r="V25" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="W25" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="X25" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z25" t="n">
-        <v>21</v>
+        <v>20.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>94</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-2.3</v>
+        <v>-4.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AH25" t="n">
         <v>7</v>
@@ -4951,37 +5018,37 @@
         <v>21</v>
       </c>
       <c r="AK25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM25" t="n">
         <v>28</v>
       </c>
       <c r="AN25" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
         <v>27</v>
       </c>
       <c r="AP25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ25" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AR25" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AS25" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AT25" t="n">
         <v>26</v>
       </c>
       <c r="AU25" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AV25" t="n">
         <v>11</v>
@@ -4990,22 +5057,22 @@
         <v>29</v>
       </c>
       <c r="AX25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY25" t="n">
         <v>1</v>
       </c>
       <c r="AZ25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA25" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BB25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC25" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -5034,94 +5101,94 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>0.333</v>
+        <v>0.2</v>
       </c>
       <c r="H26" t="n">
         <v>48</v>
       </c>
       <c r="I26" t="n">
-        <v>32.2</v>
+        <v>32.6</v>
       </c>
       <c r="J26" t="n">
-        <v>74.7</v>
+        <v>74.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.431</v>
+        <v>0.436</v>
       </c>
       <c r="L26" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.288</v>
+        <v>0.259</v>
       </c>
       <c r="O26" t="n">
-        <v>26.7</v>
+        <v>25.2</v>
       </c>
       <c r="P26" t="n">
-        <v>31.3</v>
+        <v>29.6</v>
       </c>
       <c r="Q26" t="n">
         <v>0.851</v>
       </c>
       <c r="R26" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="S26" t="n">
-        <v>26.2</v>
+        <v>26.6</v>
       </c>
       <c r="T26" t="n">
-        <v>36</v>
+        <v>35.6</v>
       </c>
       <c r="U26" t="n">
-        <v>14.2</v>
+        <v>14.6</v>
       </c>
       <c r="V26" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="W26" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X26" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.2</v>
+        <v>20.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>94.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>-6.7</v>
+        <v>-9.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH26" t="n">
         <v>7</v>
@@ -5133,7 +5200,7 @@
         <v>29</v>
       </c>
       <c r="AK26" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AL26" t="n">
         <v>30</v>
@@ -5142,19 +5209,19 @@
         <v>29</v>
       </c>
       <c r="AN26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO26" t="n">
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
       </c>
       <c r="AR26" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AS26" t="n">
         <v>30</v>
@@ -5166,28 +5233,28 @@
         <v>30</v>
       </c>
       <c r="AV26" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AW26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX26" t="n">
         <v>28</v>
       </c>
       <c r="AY26" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AZ26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC26" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>7</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
         <v>1</v>
@@ -5309,19 +5376,19 @@
         <v>7</v>
       </c>
       <c r="AI27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AN27" t="n">
         <v>16</v>
@@ -5330,13 +5397,13 @@
         <v>24</v>
       </c>
       <c r="AP27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ27" t="n">
         <v>24</v>
       </c>
       <c r="AR27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS27" t="n">
         <v>10</v>
@@ -5354,7 +5421,7 @@
         <v>15</v>
       </c>
       <c r="AX27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY27" t="n">
         <v>5</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
         <v>26</v>
@@ -5494,13 +5561,13 @@
         <v>6</v>
       </c>
       <c r="AJ28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK28" t="n">
         <v>14</v>
       </c>
       <c r="AL28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM28" t="n">
         <v>25</v>
@@ -5512,40 +5579,40 @@
         <v>24</v>
       </c>
       <c r="AP28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR28" t="n">
         <v>10</v>
       </c>
       <c r="AS28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV28" t="n">
         <v>29</v>
       </c>
       <c r="AW28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ28" t="n">
         <v>26</v>
       </c>
       <c r="BA28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB28" t="n">
         <v>14</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -5580,160 +5647,160 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>0.571</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I29" t="n">
-        <v>36.3</v>
+        <v>35.5</v>
       </c>
       <c r="J29" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K29" t="n">
-        <v>0.448</v>
+        <v>0.433</v>
       </c>
       <c r="L29" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M29" t="n">
         <v>19.7</v>
       </c>
       <c r="N29" t="n">
-        <v>0.471</v>
+        <v>0.466</v>
       </c>
       <c r="O29" t="n">
-        <v>17.3</v>
+        <v>18.7</v>
       </c>
       <c r="P29" t="n">
-        <v>21.1</v>
+        <v>23</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="R29" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S29" t="n">
-        <v>30.3</v>
+        <v>29.2</v>
       </c>
       <c r="T29" t="n">
-        <v>39.7</v>
+        <v>39</v>
       </c>
       <c r="U29" t="n">
-        <v>23.9</v>
+        <v>21.8</v>
       </c>
       <c r="V29" t="n">
-        <v>14.1</v>
+        <v>12.7</v>
       </c>
       <c r="W29" t="n">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="X29" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.6</v>
+        <v>21.2</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>5.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG29" t="n">
         <v>15</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>14</v>
       </c>
       <c r="AH29" t="n">
         <v>6</v>
       </c>
       <c r="AI29" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AJ29" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AK29" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AL29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN29" t="n">
         <v>1</v>
       </c>
       <c r="AO29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AS29" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AT29" t="n">
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AV29" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX29" t="n">
         <v>29</v>
       </c>
       <c r="AY29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>16</v>
+      </c>
+      <c r="BC29" t="n">
         <v>14</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>23</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>15</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>9</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -5762,106 +5829,106 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
         <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>0.714</v>
+        <v>0.667</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>41.9</v>
+        <v>40.7</v>
       </c>
       <c r="J30" t="n">
-        <v>83.7</v>
+        <v>82.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5</v>
+        <v>0.494</v>
       </c>
       <c r="L30" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M30" t="n">
-        <v>11.1</v>
+        <v>11.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.385</v>
+        <v>0.362</v>
       </c>
       <c r="O30" t="n">
-        <v>23.1</v>
+        <v>24.5</v>
       </c>
       <c r="P30" t="n">
-        <v>30.6</v>
+        <v>32.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.757</v>
+        <v>0.75</v>
       </c>
       <c r="R30" t="n">
         <v>12.3</v>
       </c>
       <c r="S30" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T30" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U30" t="n">
-        <v>28.4</v>
+        <v>27.5</v>
       </c>
       <c r="V30" t="n">
-        <v>17.7</v>
+        <v>18.3</v>
       </c>
       <c r="W30" t="n">
-        <v>10</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="Y30" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>25.6</v>
+        <v>24.8</v>
       </c>
       <c r="AA30" t="n">
-        <v>25.3</v>
+        <v>26.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>111.1</v>
+        <v>110</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.3</v>
+        <v>4.5</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF30" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG30" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
         <v>7</v>
       </c>
       <c r="AI30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL30" t="n">
         <v>29</v>
@@ -5870,16 +5937,16 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AO30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AQ30" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
@@ -5888,34 +5955,34 @@
         <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX30" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AY30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ30" t="n">
         <v>26</v>
       </c>
-      <c r="AZ30" t="n">
-        <v>27</v>
-      </c>
       <c r="BA30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB30" t="n">
         <v>1</v>
       </c>
       <c r="BC30" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
@@ -6022,19 +6089,19 @@
         <v>-13.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
         <v>26</v>
       </c>
       <c r="AF31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG31" t="n">
         <v>26</v>
       </c>
       <c r="AH31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI31" t="n">
         <v>28</v>
@@ -6049,25 +6116,25 @@
         <v>23</v>
       </c>
       <c r="AM31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AN31" t="n">
         <v>30</v>
       </c>
       <c r="AO31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR31" t="n">
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT31" t="n">
         <v>3</v>
@@ -6079,22 +6146,22 @@
         <v>27</v>
       </c>
       <c r="AW31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA31" t="n">
         <v>4</v>
       </c>
       <c r="BB31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-10-2007-08</t>
+          <t>2007-11-10</t>
         </is>
       </c>
     </row>
